--- a/dictionaries/entity_dictionary_template.xlsx
+++ b/dictionaries/entity_dictionary_template.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8550" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="9450" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
-    <sheet name="Entities" sheetId="1" r:id="rId2"/>
+    <sheet name="advanced_patterns" sheetId="3" r:id="rId2"/>
+    <sheet name="Entities" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>authority</t>
   </si>
@@ -111,9 +112,6 @@
     <t>United States Department of  Tourism and Travel</t>
   </si>
   <si>
-    <t>Use natural language patterns and avoid punctuation marks.</t>
-  </si>
-  <si>
     <t>Use only letters, periods, underscores and hyphens.
 See the "Entities" worksheet for more information.</t>
   </si>
@@ -157,13 +155,95 @@
   </si>
   <si>
     <t>0010</t>
+  </si>
+  <si>
+    <t>There are two types of advanced pattern syntax that can be entered into the "pattern" field:</t>
+  </si>
+  <si>
+    <t>Regular Expression syntax</t>
+  </si>
+  <si>
+    <t>Regexs can be entered verbatim into the "pattern" field but the "case_sensitive" field should be set to "False" to avoid additional case-insensitive markup from being added by the entities.py tool.</t>
+  </si>
+  <si>
+    <t>The main issue with entering regexs is that CoreNLP will run the regex over tokens. Therefore, regexs will whitespace indicators should not be used because for tokenized text the concept of whitespace no longer exists.</t>
+  </si>
+  <si>
+    <t>For more complex regexs, it can be cumbersome to manually create a row for each manifestation of a regex when optional whitespace is involved. To ease this situation, one can use the TOMES Pattern syntax.</t>
+  </si>
+  <si>
+    <t>A TOMES Pattern is composed of a leading indicator "TOMES_PATTERN:" followed by an optional space and a series of sets. Each set is enclosed on {} brackets. Sets are separated by a comma. Within each set, is one-to-many, comma-separated, quoted strings. We recommend single quotes. For a literal single quote, escape it with a backslash.</t>
+  </si>
+  <si>
+    <t>TOMES_PATTERN:{'[a-z]'},{'-', ' '}, {'[a-z]'}</t>
+  </si>
+  <si>
+    <t>[a-z] [a-z]</t>
+  </si>
+  <si>
+    <t>[a-z]-[a-z]</t>
+  </si>
+  <si>
+    <t>Use natural language patterns and avoid punctuation marks.
+For regular expressions and advanced pattern notation, see the "advanced_patterns" worksheet.</t>
+  </si>
+  <si>
+    <t>1. Regular Expression syntax</t>
+  </si>
+  <si>
+    <t>2. TOMES Pattern syntax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMES Pattern syntax </t>
+  </si>
+  <si>
+    <t>A pattern such as "[a-z][-\s][a-z]" which attempts to separate two lowercase letter by either a hyphen OR a whitespace won't work based on testing with Stanford CoreNLP. Instead, this pattern will need to be split into two rows on the "Entities" worksheet. One with the hyphen separator and one with a physical whitespace between the two lowercase letter indicators. Namely, both "[a-z][-][a-z]" AND "[a-z] [a-z]". Note that backreferences are also unlikely to work across tokens.</t>
+  </si>
+  <si>
+    <t>This will yield the following two manfestations:</t>
+  </si>
+  <si>
+    <t>We can rewrite the example from above as a TOMES Pattern as such:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that an extended version of this example: </t>
+  </si>
+  <si>
+    <t>TOMES_PATTERN:{'[a-z]'},{'-', ' '}, {'[a-z]'}, {'-', ' '}, {'[a-z]'}</t>
+  </si>
+  <si>
+    <t>[a-z] [a-z] [a-z]</t>
+  </si>
+  <si>
+    <t>[a-z] [a-z]-[a-z]</t>
+  </si>
+  <si>
+    <t>[a-z]-[a-z] [a-z]</t>
+  </si>
+  <si>
+    <t>[a-z]-[a-z]-[a-z]</t>
+  </si>
+  <si>
+    <t>This will yield the following four manfestations:</t>
+  </si>
+  <si>
+    <t>It may be undesirable two have yielded the 2nd and 3rd patterns because the separators are intermixed. However, it is assume that extraneous manifestations such as these should be harmless. If future work shows otherwise, the TOMES Pattern syntax can be expanded to mitigate this.</t>
+  </si>
+  <si>
+    <t>To test a TOMES Pattern and make sure it yields the appropriate manifestations, run the command line "-h" help option with the "./tomes_entities/tests/test__xlsx_to_entities.py" unit test script a la:</t>
+  </si>
+  <si>
+    <t>$ py -3 test__xlsx_to_entities.py -h</t>
+  </si>
+  <si>
+    <t>This allows for testing a TOMES Pattern before entering it into your "Entities" worksheet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +288,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -257,20 +352,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,8 +678,8 @@
     <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -593,32 +706,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
+      <c r="C6" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -632,16 +745,16 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -652,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="b">
         <v>1</v>
@@ -669,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -686,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>6</v>
@@ -704,6 +817,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="128.28515625" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -723,7 +1010,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -743,7 +1030,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -755,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -763,19 +1050,19 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>

--- a/dictionaries/entity_dictionary_template.xlsx
+++ b/dictionaries/entity_dictionary_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9450" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="9900" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -172,12 +172,6 @@
     <t>For more complex regexs, it can be cumbersome to manually create a row for each manifestation of a regex when optional whitespace is involved. To ease this situation, one can use the TOMES Pattern syntax.</t>
   </si>
   <si>
-    <t>A TOMES Pattern is composed of a leading indicator "TOMES_PATTERN:" followed by an optional space and a series of sets. Each set is enclosed on {} brackets. Sets are separated by a comma. Within each set, is one-to-many, comma-separated, quoted strings. We recommend single quotes. For a literal single quote, escape it with a backslash.</t>
-  </si>
-  <si>
-    <t>TOMES_PATTERN:{'[a-z]'},{'-', ' '}, {'[a-z]'}</t>
-  </si>
-  <si>
     <t>[a-z] [a-z]</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t xml:space="preserve">Note that an extended version of this example: </t>
   </si>
   <si>
-    <t>TOMES_PATTERN:{'[a-z]'},{'-', ' '}, {'[a-z]'}, {'-', ' '}, {'[a-z]'}</t>
-  </si>
-  <si>
     <t>[a-z] [a-z] [a-z]</t>
   </si>
   <si>
@@ -237,6 +228,15 @@
   </si>
   <si>
     <t>This allows for testing a TOMES Pattern before entering it into your "Entities" worksheet.</t>
+  </si>
+  <si>
+    <t>TOMES_PATTERN:{"[a-z]"},{"-", " "}, {"[a-z]"}</t>
+  </si>
+  <si>
+    <t>A TOMES Pattern is composed of a leading indicator "TOMES_PATTERN:" followed by an optional space and a series of sets. Each set is enclosed on {} brackets. Sets are separated by a comma. Within each set, is one-to-many, comma-separated, quoted strings. We recommend double quotes. For a literal double quote, escape it with a backslash.</t>
+  </si>
+  <si>
+    <t>TOMES_PATTERN: {"[a-z]"},{"-", " "}, {"[a-z]"}, {"-", " "}, {"[a-z]"}</t>
   </si>
 </sst>
 </file>
@@ -367,23 +367,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,8 +678,8 @@
     <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -820,169 +820,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="128.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="128.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-    </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-    </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+    </row>
+    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-    </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-    </row>
-    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/dictionaries/entity_dictionary_template.xlsx
+++ b/dictionaries/entity_dictionary_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9900" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>authority</t>
   </si>
@@ -169,9 +169,6 @@
     <t>The main issue with entering regexs is that CoreNLP will run the regex over tokens. Therefore, regexs will whitespace indicators should not be used because for tokenized text the concept of whitespace no longer exists.</t>
   </si>
   <si>
-    <t>For more complex regexs, it can be cumbersome to manually create a row for each manifestation of a regex when optional whitespace is involved. To ease this situation, one can use the TOMES Pattern syntax.</t>
-  </si>
-  <si>
     <t>[a-z] [a-z]</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t xml:space="preserve">TOMES Pattern syntax </t>
   </si>
   <si>
-    <t>A pattern such as "[a-z][-\s][a-z]" which attempts to separate two lowercase letter by either a hyphen OR a whitespace won't work based on testing with Stanford CoreNLP. Instead, this pattern will need to be split into two rows on the "Entities" worksheet. One with the hyphen separator and one with a physical whitespace between the two lowercase letter indicators. Namely, both "[a-z][-][a-z]" AND "[a-z] [a-z]". Note that backreferences are also unlikely to work across tokens.</t>
-  </si>
-  <si>
     <t>This will yield the following two manfestations:</t>
   </si>
   <si>
@@ -230,13 +224,28 @@
     <t>This allows for testing a TOMES Pattern before entering it into your "Entities" worksheet.</t>
   </si>
   <si>
-    <t>TOMES_PATTERN:{"[a-z]"},{"-", " "}, {"[a-z]"}</t>
-  </si>
-  <si>
-    <t>A TOMES Pattern is composed of a leading indicator "TOMES_PATTERN:" followed by an optional space and a series of sets. Each set is enclosed on {} brackets. Sets are separated by a comma. Within each set, is one-to-many, comma-separated, quoted strings. We recommend double quotes. For a literal double quote, escape it with a backslash.</t>
-  </si>
-  <si>
-    <t>TOMES_PATTERN: {"[a-z]"},{"-", " "}, {"[a-z]"}, {"-", " "}, {"[a-z]"}</t>
+    <t>A pattern such as "[a-z][-\s][a-z]" which attempts to separate two lowercase letters by either a hyphen OR a whitespace won't work based on testing with Stanford CoreNLP. Instead, this pattern will need to be split into two rows on the "Entities" worksheet. One with the hyphen separator and one with a physical whitespace between the two lowercase letter indicators. Namely, both "[a-z][-][a-z]" AND "[a-z] [a-z]". Note that backreferences are also unlikely to work across tokens.</t>
+  </si>
+  <si>
+    <t>A TOMES Pattern is composed of a leading indicator "TOMES_PATTERN:" followed by an optional space and a series of sets. Each set is enclosed on {} brackets. Sets are separated by a comma and an optional trailing space. Within each set is one-to-many, comma-separated, quoted strings. We recommend double quotes. For a literal double quote, escape it with a backslash.</t>
+  </si>
+  <si>
+    <t>TOMES_PATTERN: {"[a-z]"}, {"-", " "}, {"[a-z]"}</t>
+  </si>
+  <si>
+    <t>TOMES_PATTERN: {"[a-z]"}, {"-", " "}, {"[a-z]"}, {"-", " "}, {"[a-z]"}</t>
+  </si>
+  <si>
+    <t>TOMES_PATTERN: {"[a-z]"}, {"", "-", " "}, {"[a-z]"}</t>
+  </si>
+  <si>
+    <t>For more complex regexs, it can be cumbersome to manually create a row for each manifestation of a regex when optional or required whitespace is involved. To ease this situation, one can use the TOMES Pattern syntax.</t>
+  </si>
+  <si>
+    <t>It should be mentioned that regular expressions often include notation for optional sections. A blank character can be used within a set to specify optional sections.</t>
+  </si>
+  <si>
+    <t>The following TOMES Pattern example shows how to specify that a hyphen or whitespace separator is optional:</t>
   </si>
 </sst>
 </file>
@@ -668,7 +677,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -818,10 +827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,12 +845,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -873,7 +882,7 @@
     </row>
     <row r="11" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -881,7 +890,7 @@
     </row>
     <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -889,7 +898,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -897,7 +906,7 @@
     </row>
     <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -905,7 +914,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -918,73 +927,89 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/dictionaries/entity_dictionary_template.xlsx
+++ b/dictionaries/entity_dictionary_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{63475EAB-B2CA-4CDD-85A5-67E4E2A76A6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="12150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>authority</t>
   </si>
@@ -83,9 +84,6 @@
     <t>The string with which to "tag" the pattern.</t>
   </si>
   <si>
-    <t>A unique identifier of the institution associated with determining the pattern and label.</t>
-  </si>
-  <si>
     <t>unc.edu</t>
   </si>
   <si>
@@ -104,16 +102,7 @@
     <t>Whether or not the pattern should be a case-sensitive match (TRUE) or case-insensitive (FALSE).</t>
   </si>
   <si>
-    <t>Note that only Office 2007+ workbooks ending in "__mapping.xlsx" AND containing a worksheet named "Entities" (case sensitive) will be usable by the TOMES software.
-The "Entities" worksheet must also contain all the required columns.
-No cell in any column may be blank. The software will skip any row with a blank cell.</t>
-  </si>
-  <si>
     <t>United States Department of  Tourism and Travel</t>
-  </si>
-  <si>
-    <t>Use only letters, periods, underscores and hyphens.
-See the "Entities" worksheet for more information.</t>
   </si>
   <si>
     <t>Use domain-style tokens.
@@ -151,21 +140,12 @@
     <t>A unique identifier for the row.</t>
   </si>
   <si>
-    <t>Use zero-padded integers with a length of 4 characters.</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
     <t>There are two types of advanced pattern syntax that can be entered into the "pattern" field:</t>
   </si>
   <si>
     <t>Regular Expression syntax</t>
   </si>
   <si>
-    <t>Regexs can be entered verbatim into the "pattern" field but the "case_sensitive" field should be set to "False" to avoid additional case-insensitive markup from being added by the entities.py tool.</t>
-  </si>
-  <si>
     <t>The main issue with entering regexs is that CoreNLP will run the regex over tokens. Therefore, regexs will whitespace indicators should not be used because for tokenized text the concept of whitespace no longer exists.</t>
   </si>
   <si>
@@ -175,83 +155,102 @@
     <t>[a-z]-[a-z]</t>
   </si>
   <si>
-    <t>Use natural language patterns and avoid punctuation marks.
+    <t>1. Regular Expression syntax</t>
+  </si>
+  <si>
+    <t>2. TOMES Pattern syntax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMES Pattern syntax </t>
+  </si>
+  <si>
+    <t>This will yield the following two manfestations:</t>
+  </si>
+  <si>
+    <t>[a-z] [a-z] [a-z]</t>
+  </si>
+  <si>
+    <t>[a-z] [a-z]-[a-z]</t>
+  </si>
+  <si>
+    <t>[a-z]-[a-z] [a-z]</t>
+  </si>
+  <si>
+    <t>[a-z]-[a-z]-[a-z]</t>
+  </si>
+  <si>
+    <t>This will yield the following four manfestations:</t>
+  </si>
+  <si>
+    <t>To test a TOMES Pattern and make sure it yields the appropriate manifestations, run the command line "-h" help option with the "./tomes_entities/tests/test__xlsx_to_entities.py" unit test script a la:</t>
+  </si>
+  <si>
+    <t>$ py -3 test__xlsx_to_entities.py -h</t>
+  </si>
+  <si>
+    <t>A pattern such as "[a-z][-\s][a-z]" which attempts to separate two lowercase letters by either a hyphen OR a whitespace won't work based on testing with Stanford CoreNLP. Instead, this pattern will need to be split into two rows on the "Entities" worksheet. One with the hyphen separator and one with a physical whitespace between the two lowercase letter indicators. Namely, both "[a-z][-][a-z]" AND "[a-z] [a-z]". Note that backreferences are also unlikely to work across tokens.</t>
+  </si>
+  <si>
+    <t>TOMES_PATTERN: {"[a-z]"}, {"-", " "}, {"[a-z]"}</t>
+  </si>
+  <si>
+    <t>TOMES_PATTERN: {"[a-z]"}, {"-", " "}, {"[a-z]"}, {"-", " "}, {"[a-z]"}</t>
+  </si>
+  <si>
+    <t>TOMES_PATTERN: {"[a-z]"}, {"", "-", " "}, {"[a-z]"}</t>
+  </si>
+  <si>
+    <t>For more complex regexs, it can be cumbersome to manually create a row for each manifestation of a regex when optional or required whitespace is involved. To ease this situation, one can use the TOMES Pattern syntax.</t>
+  </si>
+  <si>
+    <t>It should be mentioned that regular expressions often include notation for optional sections. A blank character can be used within a set to specify optional sections.</t>
+  </si>
+  <si>
+    <t>The following TOMES Pattern example shows how to specify that a hyphen or whitespace separator is optional:</t>
+  </si>
+  <si>
+    <t>Use natural language patterns and avoid punctuation marks (periods for abbreviations are OK).
 For regular expressions and advanced pattern notation, see the "advanced_patterns" worksheet.</t>
   </si>
   <si>
-    <t>1. Regular Expression syntax</t>
-  </si>
-  <si>
-    <t>2. TOMES Pattern syntax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMES Pattern syntax </t>
-  </si>
-  <si>
-    <t>This will yield the following two manfestations:</t>
-  </si>
-  <si>
-    <t>We can rewrite the example from above as a TOMES Pattern as such:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note that an extended version of this example: </t>
-  </si>
-  <si>
-    <t>[a-z] [a-z] [a-z]</t>
-  </si>
-  <si>
-    <t>[a-z] [a-z]-[a-z]</t>
-  </si>
-  <si>
-    <t>[a-z]-[a-z] [a-z]</t>
-  </si>
-  <si>
-    <t>[a-z]-[a-z]-[a-z]</t>
-  </si>
-  <si>
-    <t>This will yield the following four manfestations:</t>
-  </si>
-  <si>
-    <t>It may be undesirable two have yielded the 2nd and 3rd patterns because the separators are intermixed. However, it is assume that extraneous manifestations such as these should be harmless. If future work shows otherwise, the TOMES Pattern syntax can be expanded to mitigate this.</t>
-  </si>
-  <si>
-    <t>To test a TOMES Pattern and make sure it yields the appropriate manifestations, run the command line "-h" help option with the "./tomes_entities/tests/test__xlsx_to_entities.py" unit test script a la:</t>
-  </si>
-  <si>
-    <t>$ py -3 test__xlsx_to_entities.py -h</t>
-  </si>
-  <si>
-    <t>This allows for testing a TOMES Pattern before entering it into your "Entities" worksheet.</t>
-  </si>
-  <si>
-    <t>A pattern such as "[a-z][-\s][a-z]" which attempts to separate two lowercase letters by either a hyphen OR a whitespace won't work based on testing with Stanford CoreNLP. Instead, this pattern will need to be split into two rows on the "Entities" worksheet. One with the hyphen separator and one with a physical whitespace between the two lowercase letter indicators. Namely, both "[a-z][-][a-z]" AND "[a-z] [a-z]". Note that backreferences are also unlikely to work across tokens.</t>
-  </si>
-  <si>
-    <t>A TOMES Pattern is composed of a leading indicator "TOMES_PATTERN:" followed by an optional space and a series of sets. Each set is enclosed on {} brackets. Sets are separated by a comma and an optional trailing space. Within each set is one-to-many, comma-separated, quoted strings. We recommend double quotes. For a literal double quote, escape it with a backslash.</t>
-  </si>
-  <si>
-    <t>TOMES_PATTERN: {"[a-z]"}, {"-", " "}, {"[a-z]"}</t>
-  </si>
-  <si>
-    <t>TOMES_PATTERN: {"[a-z]"}, {"-", " "}, {"[a-z]"}, {"-", " "}, {"[a-z]"}</t>
-  </si>
-  <si>
-    <t>TOMES_PATTERN: {"[a-z]"}, {"", "-", " "}, {"[a-z]"}</t>
-  </si>
-  <si>
-    <t>For more complex regexs, it can be cumbersome to manually create a row for each manifestation of a regex when optional or required whitespace is involved. To ease this situation, one can use the TOMES Pattern syntax.</t>
-  </si>
-  <si>
-    <t>It should be mentioned that regular expressions often include notation for optional sections. A blank character can be used within a set to specify optional sections.</t>
-  </si>
-  <si>
-    <t>The following TOMES Pattern example shows how to specify that a hyphen or whitespace separator is optional:</t>
+    <t xml:space="preserve">Use only letters, periods, underscores and hyphens.
+</t>
+  </si>
+  <si>
+    <t>A unique identifier for the entity that contributed the pattern and label.</t>
+  </si>
+  <si>
+    <t>Regexs can be entered verbatim into the "pattern" field but the "case_sensitive" field should be set to "False" to avoid additional case-insensitive markup from being added automatically by software.</t>
+  </si>
+  <si>
+    <t>A TOMES Pattern is composed of a leading indicator "TOMES_PATTERN:" followed by an optional space and a series of sets. Each set is enclosed with {} brackets. Sets are separated by a comma and an optional trailing space. Within each set is one-to-many, comma-separated, quoted strings. We recommend double quotes. For a literal double quote, escape it with a backslash.</t>
+  </si>
+  <si>
+    <t>We can rewrite the example from above as a TOMES Pattern:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An extended example: </t>
+  </si>
+  <si>
+    <t>It may be undesirable to have yielded the 2nd and 3rd patterns because the separators are intermixed. However, it is assumed that extraneous manifestations such as these should be harmless. If future work shows otherwise, the TOMES Pattern syntax can be expanded to mitigate this.</t>
+  </si>
+  <si>
+    <t>Note that only Office 2007+ workbooks containing a worksheet named "Entities" (case sensitive) will be usable by the TOMES Entities software.
+The "Entities" worksheet must contain all the required columns.
+No cell in any column may be blank. The software will skip any row with a blank cell.</t>
+  </si>
+  <si>
+    <t>The help message will demonstrate how to test a TOMES Pattern before entering it into your "Entities" worksheet.</t>
+  </si>
+  <si>
+    <t>Use only letters and numbers.
+For proper sorting, all identifiers should be the same length.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,11 +672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,12 +688,12 @@
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -715,24 +714,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -740,41 +739,41 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="b">
         <v>1</v>
@@ -783,38 +782,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
+      <c r="C9" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
+      <c r="B10" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -826,12 +825,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -840,17 +837,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -858,7 +855,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -866,7 +863,7 @@
     </row>
     <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -874,7 +871,7 @@
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -882,7 +879,7 @@
     </row>
     <row r="11" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -890,7 +887,7 @@
     </row>
     <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -898,7 +895,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -906,7 +903,7 @@
     </row>
     <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -914,12 +911,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -927,89 +924,89 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1018,11 +1015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,16 +1034,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -1057,19 +1054,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -1077,22 +1074,22 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
